--- a/Task/Вариант 4/Ресурсы/Мероприятия_import/Мероприятия_Машинное обучение.xlsx
+++ b/Task/Вариант 4/Ресурсы/Мероприятия_import/Мероприятия_Машинное обучение.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/ДЭ_2022_Программные решения для бизнеса/После проверки_работать здесь/КОД 1.4/Варианты и КО/Вариант 4/Вариант 4/Сессия 1/Мероприятия_import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Демоэкзамен\Conference\Task\Вариант 4\Ресурсы\Мероприятия_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FFD161-399D-5D45-8DD4-79C70B8DEA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C74BB1-5045-4E6A-9946-51C99F12CE40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28580" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План мероприятий" sheetId="2" r:id="rId1"/>
     <sheet name="Лист1" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'План мероприятий'!$A$1:$D$662</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'План мероприятий'!$A$1:$E$662</definedName>
     <definedName name="Sankt_Peterburg?type_past_RU_2" localSheetId="0">'План мероприятий'!$B$2:$B$86</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
   <si>
     <t>Митап / Бесплатное</t>
   </si>
@@ -361,6 +361,75 @@
   </si>
   <si>
     <t>Медиа-конференция Internet &amp; Digital 2022</t>
+  </si>
+  <si>
+    <t>Направление</t>
+  </si>
+  <si>
+    <t>Машинное обучение</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
+  </si>
+  <si>
+    <t>6.jpg</t>
+  </si>
+  <si>
+    <t>7.jpg</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
+  </si>
+  <si>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
+  </si>
+  <si>
+    <t>18.jpg</t>
+  </si>
+  <si>
+    <t>19.jpg</t>
+  </si>
+  <si>
+    <t>20.jpg</t>
   </si>
 </sst>
 </file>
@@ -460,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -469,6 +538,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -902,385 +972,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="111.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="118.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="8">
         <v>44596</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="8">
         <v>44666</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="8">
         <v>45246</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8">
         <v>45121</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="8">
         <v>44623</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="8">
         <v>45130</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="8">
         <v>44907</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="8">
         <v>44735</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="8">
         <v>44855</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="8">
         <v>45182</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="8">
         <v>44919</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="8">
         <v>45205</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="8">
         <v>45253</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="8">
         <v>44609</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="8">
         <v>44908</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="8">
         <v>44757</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>234</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="8">
         <v>45070</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="8">
         <v>44675</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="8">
         <v>44770</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="8">
         <v>45271</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>8</v>
       </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D662" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:D656">
-      <sortCondition ref="C1:C662"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1293,546 +1487,546 @@
       <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A118" s="4"/>
     </row>
   </sheetData>
